--- a/biology/Biologie cellulaire et moléculaire/Apolipoprotéine_C-II/Apolipoprotéine_C-II.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Apolipoprotéine_C-II/Apolipoprotéine_C-II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apolipoprot%C3%A9ine_C-II</t>
+          <t>Apolipoprotéine_C-II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apolipoprotéine C2 ou apolipoprotéine C-II est une protéine qui chez l'homme est codée par le gène APOC2. 
 La protéine codée par ce gène est sécrétée dans le plasma où elle est un composant de lipoprotéines de très basse densité et de chylomicrons. 
